--- a/cypress/downloads/Plataforma externa Volta Redonda.xlsx
+++ b/cypress/downloads/Plataforma externa Volta Redonda.xlsx
@@ -201,7 +201,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="43.2" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="10.8" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -269,26 +269,23 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Vale 5</t>
+          <t xml:space="preserve">CUPOM10 2</t>
         </is>
       </c>
       <c r="B3" s="56">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">cupomvale5%</t>
-        </is>
-      </c>
-      <c t="n" r="D3">
-        <v>10</v>
+          <t xml:space="preserve">CUPOM10</t>
+        </is>
       </c>
       <c t="n" r="E3">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">05/05/2025 00:00:00</t>
+          <t xml:space="preserve">09/06/2025 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -305,15 +302,15 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Vale5%</t>
+          <t xml:space="preserve">cupomhoje</t>
         </is>
       </c>
       <c r="B4" s="56">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">vale5</t>
+          <t xml:space="preserve">cupom17</t>
         </is>
       </c>
       <c t="n" r="D4">
@@ -324,45 +321,48 @@
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">17/06/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">20/06/2025 09:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">R$ 500.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">teste</t>
+          <t xml:space="preserve">testecupom17</t>
         </is>
       </c>
       <c r="B5" s="56">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">vale2</t>
-        </is>
+          <t xml:space="preserve">testecupom17</t>
+        </is>
+      </c>
+      <c t="n" r="D5">
+        <v>100</v>
       </c>
       <c t="n" r="E5">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">17/06/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">26/06/2025 09:25:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
@@ -372,33 +372,29 @@
       </c>
     </row>
     <row r="6">
-      <c t="inlineStr" r="A6">
-        <is>
-          <t xml:space="preserve">diasemimposto</t>
-        </is>
+      <c r="A6" s="65">
+        <v>1706</v>
       </c>
       <c r="B6" s="56">
         <v>0.1</v>
       </c>
-      <c t="inlineStr" r="C6">
-        <is>
-          <t xml:space="preserve">diasemimposto</t>
-        </is>
+      <c r="C6" s="65">
+        <v>1706</v>
       </c>
       <c t="n" r="D6">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c t="n" r="E6">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">29/05/2025 08:00:00</t>
+          <t xml:space="preserve">17/06/2025 11:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">17/06/2025 17:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H6">
@@ -410,43 +406,43 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">dia30</t>
+          <t xml:space="preserve">DIA23JUNHO</t>
         </is>
       </c>
       <c r="B7" s="56">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">dia30</t>
+          <t xml:space="preserve">DIA23JUNHO</t>
         </is>
       </c>
       <c t="n" r="D7">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c t="n" r="E7">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">30/05/2025 08:00:00</t>
+          <t xml:space="preserve">23/06/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">30/06/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">R$ 2.00</t>
+          <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">dia30semminimo</t>
+          <t xml:space="preserve">Teste2306</t>
         </is>
       </c>
       <c r="B8" s="56">
@@ -454,18 +450,18 @@
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">dia30sem</t>
+          <t xml:space="preserve">teste2306</t>
         </is>
       </c>
       <c t="n" r="D8">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c t="n" r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">23/06/2025 15:25:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -482,59 +478,62 @@
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">cupom  Maio</t>
+          <t xml:space="preserve">dia17</t>
         </is>
       </c>
       <c r="B9" s="56">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">valemaio5</t>
+          <t xml:space="preserve">dia17</t>
         </is>
       </c>
       <c t="n" r="D9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c t="n" r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">01/05/2025 00:00:00</t>
+          <t xml:space="preserve">17/07/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">17/07/2025 19:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">R$ 10.00</t>
+          <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">30FF</t>
+          <t xml:space="preserve">teste08/08</t>
         </is>
       </c>
       <c r="B10" s="56">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">CRESCA30</t>
-        </is>
+          <t xml:space="preserve">teste08/08</t>
+        </is>
+      </c>
+      <c t="n" r="D10">
+        <v>100</v>
       </c>
       <c t="n" r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">02/06/2025 12:20:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -544,62 +543,65 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">R$ 10.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">DIA04</t>
-        </is>
-      </c>
-      <c r="B11" s="56">
-        <v>0.25</v>
+          <t xml:space="preserve">testecupom</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">R$ 10.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">DIA04</t>
-        </is>
-      </c>
-      <c t="n" r="D11">
-        <v>100</v>
+          <t xml:space="preserve">testecupom</t>
+        </is>
       </c>
       <c t="n" r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">04/06/2025 08:00:00</t>
+          <t xml:space="preserve">20/08/2025 09:25:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">22/08/2025 11:30:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65">
-        <v>11111111111111111111111111111111</v>
+      <c t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">testecupom21/08</t>
+        </is>
       </c>
       <c r="B12" s="56">
-        <v>0.11</v>
-      </c>
-      <c r="C12" s="65">
-        <v>111111111</v>
+        <v>0.1</v>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">testecupom21/08</t>
+        </is>
       </c>
       <c t="n" r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">01/01/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -614,23 +616,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65">
-        <v>222222222222222222</v>
-      </c>
-      <c t="inlineStr" r="B13">
-        <is>
-          <t xml:space="preserve">R$ 1.00</t>
-        </is>
-      </c>
-      <c r="C13" s="65">
-        <v>222222222</v>
+      <c t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">Cupom7</t>
+        </is>
+      </c>
+      <c r="B13" s="56">
+        <v>0.1</v>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">0712</t>
+        </is>
+      </c>
+      <c t="n" r="D13">
+        <v>8</v>
       </c>
       <c t="n" r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">01/06/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -647,105 +654,97 @@
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">DIA04.06</t>
+          <t xml:space="preserve">CUPOM TESTE</t>
         </is>
       </c>
       <c r="B14" s="56">
         <v>0.5</v>
       </c>
-      <c t="inlineStr" r="C14">
-        <is>
-          <t xml:space="preserve">DIA04.06</t>
-        </is>
-      </c>
-      <c t="n" r="D14">
-        <v>100</v>
+      <c r="C14" s="65">
+        <v>1010</v>
       </c>
       <c t="n" r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">04/06/2025 08:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">12/06/2025 10:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">R$ 10.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">DIA0406</t>
-        </is>
-      </c>
-      <c r="B15" s="56">
-        <v>0.5</v>
+          <t xml:space="preserve">Testecupom</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">R$ 10.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">METADE</t>
+          <t xml:space="preserve">Testecupom</t>
         </is>
       </c>
       <c t="n" r="D15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c t="n" r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">04/06/2025 04:00:00</t>
+          <t xml:space="preserve">23/09/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">12/06/2025 09:30:00</t>
+          <t xml:space="preserve">26/09/2025 14:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">datafinal</t>
+          <t xml:space="preserve">TESTE</t>
         </is>
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C16">
-        <is>
-          <t xml:space="preserve">date</t>
-        </is>
-      </c>
-      <c t="n" r="D16">
-        <v>3</v>
+          <t xml:space="preserve">R$ 60.00</t>
+        </is>
+      </c>
+      <c r="C16" s="65">
+        <v>606060</v>
       </c>
       <c t="n" r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">04/06/2025 18:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">06/06/2025 23:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H16">
@@ -757,60 +756,48 @@
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">data2</t>
+          <t xml:space="preserve">TESTE</t>
         </is>
       </c>
       <c r="B17" s="56">
         <v>0.5</v>
       </c>
-      <c t="inlineStr" r="C17">
-        <is>
-          <t xml:space="preserve">50off</t>
-        </is>
-      </c>
-      <c t="n" r="D17">
-        <v>10</v>
+      <c r="C17" s="65">
+        <v>505050</v>
       </c>
       <c t="n" r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">05/06/2025 10:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">05/06/2025 18:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">R$ 200.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">CUPOM10</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B18">
-        <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C18">
-        <is>
-          <t xml:space="preserve">CUPOM10</t>
-        </is>
-      </c>
-      <c t="n" r="D18">
-        <v>3</v>
+          <t xml:space="preserve">teste</t>
+        </is>
+      </c>
+      <c r="B18" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="65">
+        <v>4040</v>
       </c>
       <c t="n" r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F18">
         <is>
@@ -819,7 +806,7 @@
       </c>
       <c t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">08/06/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H18">
@@ -831,23 +818,28 @@
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">CUPOM10 2</t>
-        </is>
-      </c>
-      <c r="B19" s="56">
-        <v>0.1</v>
+          <t xml:space="preserve">teste2609</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">R$ 10.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">CUPOM10</t>
-        </is>
+          <t xml:space="preserve">teste2609</t>
+        </is>
+      </c>
+      <c t="n" r="D19">
+        <v>100</v>
       </c>
       <c t="n" r="E19">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">09/06/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -864,15 +856,17 @@
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">cupomhoje</t>
-        </is>
-      </c>
-      <c r="B20" s="56">
-        <v>0.1</v>
+          <t xml:space="preserve">testecupom10/10</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">R$ 10.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">cupom17</t>
+          <t xml:space="preserve">testecupom10/10</t>
         </is>
       </c>
       <c t="n" r="D20">
@@ -883,12 +877,12 @@
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">17/06/2025 08:00:00</t>
+          <t xml:space="preserve">10/10/2025 08:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">20/06/2025 09:00:00</t>
+          <t xml:space="preserve">11/10/2025 14:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H20">
@@ -900,15 +894,15 @@
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">testecupom17</t>
+          <t xml:space="preserve">cupom14/10</t>
         </is>
       </c>
       <c r="B21" s="56">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">testecupom17</t>
+          <t xml:space="preserve">cupom14/10</t>
         </is>
       </c>
       <c t="n" r="D21">
@@ -919,12 +913,12 @@
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">17/06/2025 08:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">26/06/2025 09:25:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H21">
@@ -934,29 +928,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="65">
-        <v>1706</v>
+      <c t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">Cupom50</t>
+        </is>
       </c>
       <c r="B22" s="56">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="65">
-        <v>1706</v>
-      </c>
-      <c t="n" r="D22">
-        <v>10</v>
+        <v>3110</v>
       </c>
       <c t="n" r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">17/06/2025 11:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">17/06/2025 17:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H22">
@@ -968,31 +961,29 @@
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">DIA23JUNHO</t>
+          <t xml:space="preserve">Teste12/11</t>
         </is>
       </c>
       <c r="B23" s="56">
         <v>0.5</v>
       </c>
-      <c t="inlineStr" r="C23">
-        <is>
-          <t xml:space="preserve">DIA23JUNHO</t>
-        </is>
+      <c r="C23" s="65">
+        <v>105</v>
       </c>
       <c t="n" r="D23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c t="n" r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">23/06/2025 08:00:00</t>
+          <t xml:space="preserve">12/11/2025 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">30/06/2025 08:00:00</t>
+          <t xml:space="preserve">01/03/2026 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H23">
@@ -1004,138 +995,130 @@
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Teste2306</t>
-        </is>
-      </c>
-      <c r="B24" s="56">
-        <v>0.1</v>
-      </c>
-      <c t="inlineStr" r="C24">
-        <is>
-          <t xml:space="preserve">teste2306</t>
-        </is>
+          <t xml:space="preserve">TESTE12/11</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C24" s="65">
+        <v>201</v>
       </c>
       <c t="n" r="D24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c t="n" r="E24">
         <v>1</v>
       </c>
       <c t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">23/06/2025 15:25:00</t>
+          <t xml:space="preserve">12/11/2025 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">01/03/2026 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">dia17</t>
+          <t xml:space="preserve">cupom502</t>
         </is>
       </c>
       <c r="B25" s="56">
         <v>0.5</v>
       </c>
-      <c t="inlineStr" r="C25">
-        <is>
-          <t xml:space="preserve">dia17</t>
-        </is>
-      </c>
-      <c t="n" r="D25">
-        <v>100</v>
+      <c r="C25" s="65">
+        <v>5486</v>
       </c>
       <c t="n" r="E25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">17/07/2025 08:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">17/07/2025 19:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">teste08/08</t>
+          <t xml:space="preserve">TESTE12/11</t>
         </is>
       </c>
       <c r="B26" s="56">
-        <v>0.1</v>
-      </c>
-      <c t="inlineStr" r="C26">
-        <is>
-          <t xml:space="preserve">teste08/08</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="65">
+        <v>47992458811</v>
       </c>
       <c t="n" r="D26">
         <v>100</v>
       </c>
       <c t="n" r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">12/11/2025 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">03/01/2026 07:35:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">R$ 10.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">testecupom</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B27">
-        <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C27">
-        <is>
-          <t xml:space="preserve">testecupom</t>
-        </is>
+          <t xml:space="preserve">Teste</t>
+        </is>
+      </c>
+      <c r="B27" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="65">
+        <v>1617</v>
+      </c>
+      <c t="n" r="D27">
+        <v>100</v>
       </c>
       <c t="n" r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">20/08/2025 09:25:00</t>
+          <t xml:space="preserve">12/11/2025 16:15:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">22/08/2025 11:30:00</t>
+          <t xml:space="preserve">12/11/2025 16:20:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H27">
@@ -1147,19 +1130,22 @@
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">testecupom21/08</t>
-        </is>
-      </c>
-      <c r="B28" s="56">
-        <v>0.1</v>
-      </c>
-      <c t="inlineStr" r="C28">
-        <is>
-          <t xml:space="preserve">testecupom21/08</t>
-        </is>
+          <t xml:space="preserve">Testeeeee</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">R$ 2.00</t>
+        </is>
+      </c>
+      <c r="C28" s="65">
+        <v>2222</v>
+      </c>
+      <c t="n" r="D28">
+        <v>100</v>
       </c>
       <c t="n" r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F28">
         <is>
@@ -1180,22 +1166,19 @@
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Cupom7</t>
+          <t xml:space="preserve">Teste17/11</t>
         </is>
       </c>
       <c r="B29" s="56">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">0712</t>
-        </is>
-      </c>
-      <c t="n" r="D29">
-        <v>8</v>
+          <t xml:space="preserve">Teste17/11</t>
+        </is>
       </c>
       <c t="n" r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c t="inlineStr" r="F29">
         <is>
@@ -1216,64 +1199,65 @@
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">CUPOM TESTE</t>
+          <t xml:space="preserve">teste</t>
         </is>
       </c>
       <c r="B30" s="56">
         <v>0.5</v>
       </c>
       <c r="C30" s="65">
-        <v>1010</v>
+        <v>5050</v>
+      </c>
+      <c t="n" r="D30">
+        <v>10</v>
       </c>
       <c t="n" r="E30">
         <v>1</v>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">21/11/2025 14:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">21/11/2025 15:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Testecupom</t>
+          <t xml:space="preserve">teste</t>
         </is>
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C31">
-        <is>
-          <t xml:space="preserve">Testecupom</t>
-        </is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
+      </c>
+      <c r="C31" s="65">
+        <v>123</v>
       </c>
       <c t="n" r="D31">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c t="n" r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">23/09/2025 08:00:00</t>
+          <t xml:space="preserve">18/11/2025 13:45:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">26/09/2025 14:00:00</t>
+          <t xml:space="preserve">19/11/2025 14:50:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H31">
@@ -1285,28 +1269,31 @@
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">TESTE</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B32">
-        <is>
-          <t xml:space="preserve">R$ 60.00</t>
-        </is>
-      </c>
-      <c r="C32" s="65">
-        <v>606060</v>
+          <t xml:space="preserve">testes 2111</t>
+        </is>
+      </c>
+      <c r="B32" s="56">
+        <v>0.5</v>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">date123</t>
+        </is>
+      </c>
+      <c t="n" r="D32">
+        <v>5</v>
       </c>
       <c t="n" r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">18/11/2025 15:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">19/11/2025 19:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H32">
@@ -1318,57 +1305,66 @@
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">TESTE</t>
-        </is>
-      </c>
-      <c r="B33" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="65">
-        <v>505050</v>
+          <t xml:space="preserve">Teste 04/12-1</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">Teste 04/12-1</t>
+        </is>
+      </c>
+      <c t="n" r="D33">
+        <v>1</v>
       </c>
       <c t="n" r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">04/12/2025 10:45:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">04/12/2025 10:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 5.00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">teste</t>
+          <t xml:space="preserve">cupom 04/12 data vencida</t>
         </is>
       </c>
       <c r="B34" s="56">
         <v>0.5</v>
       </c>
-      <c r="C34" s="65">
-        <v>4040</v>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">caio5050</t>
+        </is>
       </c>
       <c t="n" r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">04/12/2025 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">04/12/2025 13:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H34">
@@ -1380,24 +1376,21 @@
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">teste2609</t>
+          <t xml:space="preserve">TesteDois</t>
         </is>
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">R$ 10.00</t>
+          <t xml:space="preserve">R$ 2.00</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">teste2609</t>
-        </is>
-      </c>
-      <c t="n" r="D35">
-        <v>100</v>
+          <t xml:space="preserve">TesteDois</t>
+        </is>
       </c>
       <c t="n" r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c t="inlineStr" r="F35">
         <is>
@@ -1418,33 +1411,31 @@
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">testecupom10/10</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B36">
-        <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
+          <t xml:space="preserve">CUPOM COM LIMITE 1</t>
+        </is>
+      </c>
+      <c r="B36" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">testecupom10/10</t>
+          <t xml:space="preserve">limitado</t>
         </is>
       </c>
       <c t="n" r="D36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c t="n" r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F36">
         <is>
-          <t xml:space="preserve">10/10/2025 08:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">11/10/2025 14:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H36">
@@ -1456,31 +1447,30 @@
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">cupom14/10</t>
-        </is>
-      </c>
-      <c r="B37" s="56">
-        <v>0.1</v>
+          <t xml:space="preserve">expirado</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">cupom14/10</t>
-        </is>
-      </c>
-      <c t="n" r="D37">
-        <v>100</v>
+          <t xml:space="preserve">acabou50</t>
+        </is>
       </c>
       <c t="n" r="E37">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">04/12/2025 13:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">05/12/2025 09:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H37">
@@ -1492,64 +1482,66 @@
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">teste</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B38">
-        <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
+          <t xml:space="preserve">cupom teste % 08/12/2025</t>
+        </is>
+      </c>
+      <c r="B38" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">caio10</t>
+          <t xml:space="preserve">08122025</t>
         </is>
       </c>
       <c t="n" r="D38">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c t="n" r="E38">
         <v>1</v>
       </c>
       <c t="inlineStr" r="F38">
         <is>
-          <t xml:space="preserve">24/10/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">31/10/2025 23:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">R$ 3.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Cupom50</t>
-        </is>
-      </c>
-      <c r="B39" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="65">
-        <v>3110</v>
+          <t xml:space="preserve">cupom data expirada 08/12/2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">0802200511</t>
+        </is>
       </c>
       <c t="n" r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F39">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">01/12/2025 04:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">02/12/2025 01:05:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H39">
@@ -1561,41 +1553,43 @@
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Teste12/11</t>
+          <t xml:space="preserve">Teste</t>
         </is>
       </c>
       <c r="B40" s="56">
         <v>0.5</v>
       </c>
-      <c r="C40" s="65">
-        <v>105</v>
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">0912</t>
+        </is>
       </c>
       <c t="n" r="D40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c t="n" r="E40">
         <v>1</v>
       </c>
       <c t="inlineStr" r="F40">
         <is>
-          <t xml:space="preserve">12/11/2025 00:00:00</t>
+          <t xml:space="preserve">09/12/2025 11:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">01/03/2026 00:00:00</t>
+          <t xml:space="preserve">09/12/2025 15:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">TESTE12/11</t>
+          <t xml:space="preserve">Teste Teste</t>
         </is>
       </c>
       <c t="inlineStr" r="B41">
@@ -1603,54 +1597,60 @@
           <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
-      <c r="C41" s="65">
-        <v>201</v>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">09121</t>
+        </is>
       </c>
       <c t="n" r="D41">
         <v>1</v>
       </c>
       <c t="n" r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F41">
         <is>
-          <t xml:space="preserve">12/11/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">01/03/2026 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">cupom502</t>
-        </is>
-      </c>
-      <c r="B42" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="C42" s="65">
-        <v>5486</v>
+          <t xml:space="preserve">Teste 2</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">09122</t>
+        </is>
       </c>
       <c t="n" r="E42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F42">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">09/12/2025 12:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">09/12/2025 13:10:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H42">
@@ -1662,63 +1662,69 @@
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">TESTE12/11</t>
+          <t xml:space="preserve">cupom 09/12/25</t>
         </is>
       </c>
       <c r="B43" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="C43" s="65">
-        <v>47992458811</v>
+        <v>0.11</v>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">cupom101010</t>
+        </is>
       </c>
       <c t="n" r="D43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c t="n" r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F43">
         <is>
-          <t xml:space="preserve">12/11/2025 00:00:00</t>
+          <t xml:space="preserve">09/12/2025 11:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">03/01/2026 07:35:00</t>
+          <t xml:space="preserve">09/12/2025 19:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 2.00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Teste</t>
-        </is>
-      </c>
-      <c r="B44" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="C44" s="65">
-        <v>1617</v>
+          <t xml:space="preserve">caio101010</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
+        <is>
+          <t xml:space="preserve">dinheiro</t>
+        </is>
       </c>
       <c t="n" r="D44">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c t="n" r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F44">
         <is>
-          <t xml:space="preserve">12/11/2025 16:15:00</t>
+          <t xml:space="preserve">09/12/2025 09:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">12/11/2025 16:20:00</t>
+          <t xml:space="preserve">09/12/2025 12:20:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H44">
@@ -1730,31 +1736,33 @@
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Testeeeee</t>
+          <t xml:space="preserve">cupom29929</t>
         </is>
       </c>
       <c t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">R$ 2.00</t>
-        </is>
-      </c>
-      <c r="C45" s="65">
-        <v>2222</v>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">09082025</t>
+        </is>
       </c>
       <c t="n" r="D45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c t="n" r="E45">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F45">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">09/12/2025 09:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">09/12/2025 10:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H45">
@@ -1766,28 +1774,31 @@
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Teste17/11</t>
-        </is>
-      </c>
-      <c r="B46" s="56">
-        <v>0.5</v>
-      </c>
-      <c t="inlineStr" r="C46">
-        <is>
-          <t xml:space="preserve">Teste17/11</t>
-        </is>
+          <t xml:space="preserve">cupom data encerradda</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
+      </c>
+      <c r="C46" s="65">
+        <v>898989</v>
+      </c>
+      <c t="n" r="D46">
+        <v>2</v>
       </c>
       <c t="n" r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F46">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">01/11/2025 02:10:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">02/12/2025 01:05:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H46">
@@ -1799,65 +1810,66 @@
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">teste</t>
+          <t xml:space="preserve">turma recorrente</t>
         </is>
       </c>
       <c r="B47" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="C47" s="65">
-        <v>5050</v>
-      </c>
-      <c t="n" r="D47">
-        <v>10</v>
+        <v>0.1</v>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">teste09122025</t>
+        </is>
       </c>
       <c t="n" r="E47">
         <v>1</v>
       </c>
       <c t="inlineStr" r="F47">
         <is>
-          <t xml:space="preserve">21/11/2025 14:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">21/11/2025 15:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">teste</t>
+          <t xml:space="preserve">Teste 12/12-2</t>
         </is>
       </c>
       <c t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
-      </c>
-      <c r="C48" s="65">
-        <v>123</v>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">Teste 12/12-2</t>
+        </is>
       </c>
       <c t="n" r="D48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F48">
         <is>
-          <t xml:space="preserve">18/11/2025 13:45:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">19/11/2025 14:50:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H48">
@@ -1869,31 +1881,33 @@
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">testes 2111</t>
-        </is>
-      </c>
-      <c r="B49" s="56">
-        <v>0.5</v>
+          <t xml:space="preserve">cupom 121225</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C49">
         <is>
-          <t xml:space="preserve">date123</t>
+          <t xml:space="preserve">caio121225</t>
         </is>
       </c>
       <c t="n" r="D49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="n" r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F49">
         <is>
-          <t xml:space="preserve">18/11/2025 15:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">19/11/2025 19:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H49">
@@ -1905,101 +1919,104 @@
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Teste 04/12-1</t>
+          <t xml:space="preserve">caio expiração teste</t>
         </is>
       </c>
       <c t="inlineStr" r="B50">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">R$ 5.00</t>
         </is>
       </c>
       <c t="inlineStr" r="C50">
         <is>
-          <t xml:space="preserve">Teste 04/12-1</t>
-        </is>
-      </c>
-      <c t="n" r="D50">
-        <v>1</v>
+          <t xml:space="preserve">caiocaiocaio</t>
+        </is>
       </c>
       <c t="n" r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F50">
         <is>
-          <t xml:space="preserve">04/12/2025 10:45:00</t>
+          <t xml:space="preserve">12/12/2025 11:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">04/12/2025 10:55:00</t>
+          <t xml:space="preserve">12/12/2025 11:30:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">cupom 04/12 data vencida</t>
-        </is>
-      </c>
-      <c r="B51" s="56">
-        <v>0.5</v>
+          <t xml:space="preserve">teste limite</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C51">
         <is>
-          <t xml:space="preserve">caio5050</t>
-        </is>
+          <t xml:space="preserve">testelimitete</t>
+        </is>
+      </c>
+      <c t="n" r="D51">
+        <v>1</v>
       </c>
       <c t="n" r="E51">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F51">
         <is>
-          <t xml:space="preserve">04/12/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">04/12/2025 13:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 5.00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">TesteDois</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B52">
-        <is>
-          <t xml:space="preserve">R$ 2.00</t>
-        </is>
+          <t xml:space="preserve">12/12 - 2</t>
+        </is>
+      </c>
+      <c r="B52" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C52">
         <is>
-          <t xml:space="preserve">TesteDois</t>
-        </is>
+          <t xml:space="preserve">12/12 - 2</t>
+        </is>
+      </c>
+      <c t="n" r="D52">
+        <v>1</v>
       </c>
       <c t="n" r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F52">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">12/12/2025 00:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">12/12/2025 23:55:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H52">
@@ -2011,7 +2028,7 @@
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">CUPOM COM LIMITE 1</t>
+          <t xml:space="preserve">18/12</t>
         </is>
       </c>
       <c r="B53" s="56">
@@ -2019,14 +2036,14 @@
       </c>
       <c t="inlineStr" r="C53">
         <is>
-          <t xml:space="preserve">limitado</t>
+          <t xml:space="preserve">18/12</t>
         </is>
       </c>
       <c t="n" r="D53">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c t="n" r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="inlineStr" r="F53">
         <is>
@@ -2047,30 +2064,31 @@
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">expirado</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B54">
-        <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
+          <t xml:space="preserve">Trila chefcklist 18/12/25</t>
+        </is>
+      </c>
+      <c r="B54" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C54">
         <is>
-          <t xml:space="preserve">acabou50</t>
-        </is>
+          <t xml:space="preserve">caio18122025</t>
+        </is>
+      </c>
+      <c t="n" r="D54">
+        <v>1</v>
       </c>
       <c t="n" r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F54">
         <is>
-          <t xml:space="preserve">04/12/2025 13:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">05/12/2025 09:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H54">
@@ -2080,21 +2098,17 @@
       </c>
     </row>
     <row r="55">
-      <c t="inlineStr" r="A55">
-        <is>
-          <t xml:space="preserve">cupom teste % 08/12/2025</t>
-        </is>
+      <c r="A55" s="56">
+        <v>1</v>
       </c>
       <c r="B55" s="56">
-        <v>0.5</v>
-      </c>
-      <c t="inlineStr" r="C55">
-        <is>
-          <t xml:space="preserve">08122025</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C55" s="56">
+        <v>1</v>
       </c>
       <c t="n" r="D55">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c t="n" r="E55">
         <v>1</v>
@@ -2118,30 +2132,30 @@
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">cupom data expirada 08/12/2025</t>
+          <t xml:space="preserve">18/12  cupom</t>
         </is>
       </c>
       <c t="inlineStr" r="B56">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
+          <t xml:space="preserve">R$ 10.00</t>
         </is>
       </c>
       <c t="inlineStr" r="C56">
         <is>
-          <t xml:space="preserve">0802200511</t>
+          <t xml:space="preserve">18/12cupom</t>
         </is>
       </c>
       <c t="n" r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F56">
         <is>
-          <t xml:space="preserve">01/12/2025 04:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">02/12/2025 01:05:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H56">
@@ -2153,7 +2167,7 @@
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Teste</t>
+          <t xml:space="preserve">cupom 50%</t>
         </is>
       </c>
       <c r="B57" s="56">
@@ -2161,23 +2175,23 @@
       </c>
       <c t="inlineStr" r="C57">
         <is>
-          <t xml:space="preserve">0912</t>
+          <t xml:space="preserve">50%1812</t>
         </is>
       </c>
       <c t="n" r="D57">
         <v>1</v>
       </c>
       <c t="n" r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F57">
         <is>
-          <t xml:space="preserve">09/12/2025 11:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">09/12/2025 15:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H57">
@@ -2189,24 +2203,22 @@
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Teste Teste</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B58">
-        <is>
-          <t xml:space="preserve">R$ 1.00</t>
-        </is>
+          <t xml:space="preserve">trilha 18/12/25 xheflist c</t>
+        </is>
+      </c>
+      <c r="B58" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C58">
         <is>
-          <t xml:space="preserve">09121</t>
+          <t xml:space="preserve">50c1812</t>
         </is>
       </c>
       <c t="n" r="D58">
         <v>1</v>
       </c>
       <c t="n" r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F58">
         <is>
@@ -2227,7 +2239,7 @@
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Teste 2</t>
+          <t xml:space="preserve">teste</t>
         </is>
       </c>
       <c t="inlineStr" r="B59">
@@ -2235,96 +2247,89 @@
           <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
-      <c t="inlineStr" r="C59">
-        <is>
-          <t xml:space="preserve">09122</t>
-        </is>
+      <c r="C59" s="65">
+        <v>969754</v>
       </c>
       <c t="n" r="E59">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F59">
         <is>
-          <t xml:space="preserve">09/12/2025 12:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">09/12/2025 13:10:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 1.00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">cupom 09/12/25</t>
+          <t xml:space="preserve">teste metade</t>
         </is>
       </c>
       <c r="B60" s="56">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C60">
         <is>
-          <t xml:space="preserve">cupom101010</t>
-        </is>
-      </c>
-      <c t="n" r="D60">
-        <v>1</v>
+          <t xml:space="preserve">0510</t>
+        </is>
       </c>
       <c t="n" r="E60">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c t="inlineStr" r="F60">
         <is>
-          <t xml:space="preserve">09/12/2025 11:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">09/12/2025 19:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">R$ 2.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">caio101010</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B61">
-        <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
+          <t xml:space="preserve">TesteLimite</t>
+        </is>
+      </c>
+      <c r="B61" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C61">
         <is>
-          <t xml:space="preserve">dinheiro</t>
+          <t xml:space="preserve">05/01/2026</t>
         </is>
       </c>
       <c t="n" r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="n" r="E61">
         <v>1</v>
       </c>
       <c t="inlineStr" r="F61">
         <is>
-          <t xml:space="preserve">09/12/2025 09:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">09/12/2025 12:20:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H61">
@@ -2336,33 +2341,28 @@
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">cupom29929</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B62">
-        <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
+          <t xml:space="preserve">Data expirada</t>
+        </is>
+      </c>
+      <c r="B62" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C62">
         <is>
-          <t xml:space="preserve">09082025</t>
-        </is>
-      </c>
-      <c t="n" r="D62">
-        <v>1</v>
+          <t xml:space="preserve">0520</t>
+        </is>
       </c>
       <c t="n" r="E62">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F62">
         <is>
-          <t xml:space="preserve">09/12/2025 09:00:00</t>
+          <t xml:space="preserve">05/01/2026 14:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">09/12/2025 10:00:00</t>
+          <t xml:space="preserve">05/01/2026 14:15:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H62">
@@ -2374,102 +2374,106 @@
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">cupom data encerradda</t>
+          <t xml:space="preserve">Valor Acima do minimo</t>
         </is>
       </c>
       <c t="inlineStr" r="B63">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
-      </c>
-      <c r="C63" s="65">
-        <v>898989</v>
-      </c>
-      <c t="n" r="D63">
-        <v>2</v>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">0530</t>
+        </is>
       </c>
       <c t="n" r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F63">
         <is>
-          <t xml:space="preserve">01/11/2025 02:10:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">02/12/2025 01:05:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 2.00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">turma recorrente</t>
-        </is>
-      </c>
-      <c r="B64" s="56">
-        <v>0.1</v>
+          <t xml:space="preserve">06/12/26 caio</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">R$ 5.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C64">
         <is>
-          <t xml:space="preserve">teste09122025</t>
-        </is>
+          <t xml:space="preserve">0626 caio</t>
+        </is>
+      </c>
+      <c t="n" r="D64">
+        <v>1</v>
       </c>
       <c t="n" r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F64">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">06/01/2026 15:45:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">06/01/2026 16:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">R$ 20.00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Teste 12/12-2</t>
+          <t xml:space="preserve">teste cupom recorrente</t>
         </is>
       </c>
       <c t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">R$ 1.00</t>
+          <t xml:space="preserve">R$ 5.00</t>
         </is>
       </c>
       <c t="inlineStr" r="C65">
         <is>
-          <t xml:space="preserve">Teste 12/12-2</t>
+          <t xml:space="preserve">cinco reais</t>
         </is>
       </c>
       <c t="n" r="D65">
         <v>1</v>
       </c>
       <c t="n" r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F65">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">06/01/2026 15:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">06/01/2026 16:05:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H65">
@@ -2481,24 +2485,22 @@
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">cupom 121225</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B66">
-        <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
+          <t xml:space="preserve">teste06/01</t>
+        </is>
+      </c>
+      <c r="B66" s="56">
+        <v>1</v>
       </c>
       <c t="inlineStr" r="C66">
         <is>
-          <t xml:space="preserve">caio121225</t>
+          <t xml:space="preserve">teste06/01</t>
         </is>
       </c>
       <c t="n" r="D66">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c t="n" r="E66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="inlineStr" r="F66">
         <is>
@@ -2519,30 +2521,31 @@
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">caio expiração teste</t>
+          <t xml:space="preserve">teste</t>
         </is>
       </c>
       <c t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C67">
-        <is>
-          <t xml:space="preserve">caiocaiocaio</t>
-        </is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C67" s="65">
+        <v>1301</v>
+      </c>
+      <c t="n" r="D67">
+        <v>1</v>
       </c>
       <c t="n" r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F67">
         <is>
-          <t xml:space="preserve">12/12/2025 11:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">12/12/2025 11:30:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H67">
@@ -2554,24 +2557,17 @@
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">teste limite</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B68">
-        <is>
-          <t xml:space="preserve">R$ 1.00</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C68">
-        <is>
-          <t xml:space="preserve">testelimitete</t>
-        </is>
-      </c>
-      <c t="n" r="D68">
-        <v>1</v>
+          <t xml:space="preserve">teste2</t>
+        </is>
+      </c>
+      <c r="B68" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="65">
+        <v>1302</v>
       </c>
       <c t="n" r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F68">
         <is>
@@ -2585,38 +2581,37 @@
       </c>
       <c t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">R$ 5.00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">12/12 - 2</t>
-        </is>
-      </c>
-      <c r="B69" s="56">
-        <v>0.5</v>
+          <t xml:space="preserve">Desconto1</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C69">
         <is>
-          <t xml:space="preserve">12/12 - 2</t>
-        </is>
-      </c>
-      <c t="n" r="D69">
-        <v>1</v>
+          <t xml:space="preserve">desc1</t>
+        </is>
       </c>
       <c t="n" r="E69">
         <v>0</v>
       </c>
       <c t="inlineStr" r="F69">
         <is>
-          <t xml:space="preserve">12/12/2025 00:00:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">12/12/2025 23:55:00</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="H69">
@@ -2628,22 +2623,24 @@
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">18/12</t>
-        </is>
-      </c>
-      <c r="B70" s="56">
-        <v>0.5</v>
+          <t xml:space="preserve">Desconto2</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">R$ 2.00</t>
+        </is>
       </c>
       <c t="inlineStr" r="C70">
         <is>
-          <t xml:space="preserve">18/12</t>
+          <t xml:space="preserve">desc2</t>
         </is>
       </c>
       <c t="n" r="D70">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c t="n" r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F70">
         <is>
@@ -2664,16 +2661,14 @@
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Trila chefcklist 18/12/25</t>
+          <t xml:space="preserve">TesteLector14</t>
         </is>
       </c>
       <c r="B71" s="56">
         <v>0.5</v>
       </c>
-      <c t="inlineStr" r="C71">
-        <is>
-          <t xml:space="preserve">caio18122025</t>
-        </is>
+      <c r="C71" s="65">
+        <v>12345678</v>
       </c>
       <c t="n" r="D71">
         <v>1</v>
@@ -2698,17 +2693,21 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="56">
-        <v>1</v>
-      </c>
-      <c r="B72" s="56">
-        <v>1</v>
-      </c>
-      <c r="C72" s="56">
-        <v>1</v>
+      <c t="inlineStr" r="A72">
+        <is>
+          <t xml:space="preserve">Teste141414</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C72" s="65">
+        <v>123456789</v>
       </c>
       <c t="n" r="D72">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c t="n" r="E72">
         <v>1</v>
@@ -2732,21 +2731,19 @@
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">18/12  cupom</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B73">
-        <is>
-          <t xml:space="preserve">R$ 10.00</t>
-        </is>
+          <t xml:space="preserve">15/01</t>
+        </is>
+      </c>
+      <c r="B73" s="56">
+        <v>0.5</v>
       </c>
       <c t="inlineStr" r="C73">
         <is>
-          <t xml:space="preserve">18/12cupom</t>
+          <t xml:space="preserve">15/01</t>
         </is>
       </c>
       <c t="n" r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="F73">
         <is>
@@ -2767,31 +2764,31 @@
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">cupom 50%</t>
+          <t xml:space="preserve">15/01</t>
         </is>
       </c>
       <c r="B74" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="C74">
         <is>
-          <t xml:space="preserve">50%1812</t>
+          <t xml:space="preserve">15/01%</t>
         </is>
       </c>
       <c t="n" r="D74">
         <v>1</v>
       </c>
       <c t="n" r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="F74">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">15/01/2026 12:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">15/01/2026 14:00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="H74">
@@ -2803,34 +2800,502 @@
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">trilha 18/12/25 xheflist c</t>
+          <t xml:space="preserve">Teste 1515</t>
         </is>
       </c>
       <c r="B75" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="C75" s="65">
+        <v>1515</v>
+      </c>
+      <c t="n" r="D75">
+        <v>1</v>
+      </c>
+      <c t="n" r="E75">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="F75">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G75">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H75">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c t="inlineStr" r="A76">
+        <is>
+          <t xml:space="preserve">Teste 151515</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C76" s="65">
+        <v>151515</v>
+      </c>
+      <c t="n" r="E76">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="F76">
+        <is>
+          <t xml:space="preserve">15/01/2026 14:05:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G76">
+        <is>
+          <t xml:space="preserve">15/01/2026 14:05:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H76">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve">Teste 0115</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C77" s="65">
+        <v>15151515</v>
+      </c>
+      <c t="n" r="E77">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="F77">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G77">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H77">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c t="inlineStr" r="A78">
+        <is>
+          <t xml:space="preserve">teste cupom 20/01</t>
+        </is>
+      </c>
+      <c r="B78" s="56">
+        <v>0.3</v>
+      </c>
+      <c t="inlineStr" r="C78">
+        <is>
+          <t xml:space="preserve">lc202601</t>
+        </is>
+      </c>
+      <c t="n" r="D78">
+        <v>20</v>
+      </c>
+      <c t="n" r="E78">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="F78">
+        <is>
+          <t xml:space="preserve">20/01/2026 12:40:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G78">
+        <is>
+          <t xml:space="preserve">29/01/2026 18:50:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H78">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c t="inlineStr" r="A79">
+        <is>
+          <t xml:space="preserve">Teste 2101</t>
+        </is>
+      </c>
+      <c r="B79" s="56">
         <v>0.5</v>
       </c>
-      <c t="inlineStr" r="C75">
-        <is>
-          <t xml:space="preserve">50c1812</t>
-        </is>
-      </c>
-      <c t="n" r="D75">
-        <v>1</v>
-      </c>
-      <c t="n" r="E75">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="F75">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G75">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H75">
+      <c r="C79" s="65">
+        <v>2101</v>
+      </c>
+      <c t="n" r="D79">
+        <v>1</v>
+      </c>
+      <c t="n" r="E79">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="F79">
+        <is>
+          <t xml:space="preserve">21/01/2026 10:55:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G79">
+        <is>
+          <t xml:space="preserve">21/01/2026 11:35:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H79">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c t="inlineStr" r="A80">
+        <is>
+          <t xml:space="preserve">Teste 2</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C80" s="65">
+        <v>21012</v>
+      </c>
+      <c t="n" r="D80">
+        <v>1</v>
+      </c>
+      <c t="n" r="E80">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="F80">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G80">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H80">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c t="inlineStr" r="A81">
+        <is>
+          <t xml:space="preserve">Teste 100% 2101</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C81" s="65">
+        <v>2006</v>
+      </c>
+      <c t="n" r="E81">
+        <v>5</v>
+      </c>
+      <c t="inlineStr" r="F81">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G81">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H81">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c t="inlineStr" r="A82">
+        <is>
+          <t xml:space="preserve">Teste 21013</t>
+        </is>
+      </c>
+      <c r="B82" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="65">
+        <v>21013</v>
+      </c>
+      <c t="n" r="E82">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="F82">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G82">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H82">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c t="inlineStr" r="A83">
+        <is>
+          <t xml:space="preserve">cupom teste 21/01</t>
+        </is>
+      </c>
+      <c r="B83" s="56">
+        <v>0.3</v>
+      </c>
+      <c t="inlineStr" r="C83">
+        <is>
+          <t xml:space="preserve">my20261</t>
+        </is>
+      </c>
+      <c t="n" r="D83">
+        <v>11</v>
+      </c>
+      <c t="n" r="E83">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="F83">
+        <is>
+          <t xml:space="preserve">21/01/2026 13:00:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G83">
+        <is>
+          <t xml:space="preserve">21/01/2026 13:25:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H83">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c t="inlineStr" r="A84">
+        <is>
+          <t xml:space="preserve">cupom porcentagem</t>
+        </is>
+      </c>
+      <c r="B84" s="56">
+        <v>0.3</v>
+      </c>
+      <c t="inlineStr" r="C84">
+        <is>
+          <t xml:space="preserve">desconto30</t>
+        </is>
+      </c>
+      <c t="n" r="D84">
+        <v>11</v>
+      </c>
+      <c t="n" r="E84">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="F84">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G84">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H84">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c t="inlineStr" r="A85">
+        <is>
+          <t xml:space="preserve">cupom3030desconto</t>
+        </is>
+      </c>
+      <c r="B85" s="56">
+        <v>0.3</v>
+      </c>
+      <c t="inlineStr" r="C85">
+        <is>
+          <t xml:space="preserve">desconto30%</t>
+        </is>
+      </c>
+      <c t="n" r="D85">
+        <v>11</v>
+      </c>
+      <c t="n" r="E85">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="F85">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G85">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H85">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve">Teste Metade 1</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">R$ 1.00</t>
+        </is>
+      </c>
+      <c r="C86" s="65">
+        <v>2201</v>
+      </c>
+      <c t="n" r="E86">
+        <v>2</v>
+      </c>
+      <c t="inlineStr" r="F86">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G86">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H86">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c t="inlineStr" r="A87">
+        <is>
+          <t xml:space="preserve">Valor Minimo 2</t>
+        </is>
+      </c>
+      <c r="B87" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="C87" s="65">
+        <v>2203</v>
+      </c>
+      <c t="n" r="E87">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="F87">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G87">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H87">
+        <is>
+          <t xml:space="preserve">R$ 3.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c t="inlineStr" r="A88">
+        <is>
+          <t xml:space="preserve">teste</t>
+        </is>
+      </c>
+      <c r="B88" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C88" s="65">
+        <v>5656</v>
+      </c>
+      <c t="n" r="E88">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="F88">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G88">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H88">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c t="inlineStr" r="A89">
+        <is>
+          <t xml:space="preserve">teste</t>
+        </is>
+      </c>
+      <c r="B89" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="65">
+        <v>5757</v>
+      </c>
+      <c t="n" r="E89">
+        <v>0</v>
+      </c>
+      <c t="inlineStr" r="F89">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G89">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H89">
         <is>
           <t xml:space="preserve">-</t>
         </is>
